--- a/docs/Test formules.xlsx
+++ b/docs/Test formules.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Clement/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0F2A18-AB1D-E647-BD80-0C3072AC7FC6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8180F7B0-C700-4C47-AF4F-694579B22F2A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14600" xr2:uid="{8050C4B1-A1ED-6B40-93C0-AB5B41D0B8AF}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14600" activeTab="1" xr2:uid="{8050C4B1-A1ED-6B40-93C0-AB5B41D0B8AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="20MnCr5" sheetId="3" r:id="rId2"/>
+    <sheet name="11SMn37" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>Famille</t>
   </si>
@@ -75,9 +77,15 @@
     <t>11SMn30</t>
   </si>
   <si>
+    <t>11SMn30Pb</t>
+  </si>
+  <si>
     <t>11SMn37</t>
   </si>
   <si>
+    <t>11SMn37Pb</t>
+  </si>
+  <si>
     <t>16MnCr6</t>
   </si>
   <si>
@@ -90,9 +98,6 @@
     <t>Inox</t>
   </si>
   <si>
-    <t>44SMnSi30</t>
-  </si>
-  <si>
     <t>51CrV4</t>
   </si>
   <si>
@@ -103,6 +108,30 @@
   </si>
   <si>
     <t>316l</t>
+  </si>
+  <si>
+    <t>16CrNi4SPb</t>
+  </si>
+  <si>
+    <t>11SMn30PbTeBiC</t>
+  </si>
+  <si>
+    <t>15SMn13</t>
+  </si>
+  <si>
+    <t>20CrNiMo2-2</t>
+  </si>
+  <si>
+    <t>36MnPb14</t>
+  </si>
+  <si>
+    <t>38SMn28</t>
+  </si>
+  <si>
+    <t>40SMnSi30</t>
+  </si>
+  <si>
+    <t>44SMn28</t>
   </si>
 </sst>
 </file>
@@ -121,12 +150,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -297,11 +338,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -326,6 +372,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,15 +692,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B02B1-CA29-C948-8D4B-F18E862D40FD}">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
@@ -656,468 +709,1981 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1022</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>60</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>0.05</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <f>(100*$E$3)/$F$3</f>
         <v>120000</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="18">
         <f>(1/E3)*F3*G3</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>785</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>50</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>0.05</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G8" si="0">(100*$E$3)/$F$3</f>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G7" si="0">(100*$E$3)/$F$3</f>
         <v>120000</v>
       </c>
-      <c r="H4" s="13">
-        <f t="shared" ref="H4:H15" si="1">(1/E4)*F4*G4</f>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H7" si="1">(1/E4)*F4*G4</f>
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>978</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>47</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>0.05</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="18">
         <f t="shared" si="1"/>
         <v>127.65957446808511</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>785</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>100</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>0.05</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>800</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>41</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7">
         <v>0.05</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="19">
         <f t="shared" si="1"/>
         <v>146.34146341463418</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="16">
         <v>1300</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="16">
         <v>37</v>
       </c>
-      <c r="F8" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8" s="2">
         <f>(100*$E$8)/$F$8</f>
         <v>52857.142857142855</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="20">
         <f>(1/E8)*F8*G8</f>
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="15">
         <v>770</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="15">
         <v>94</v>
       </c>
-      <c r="F9" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" ref="G9:G16" si="2">(100*$E$8)/$F$8</f>
+      <c r="F9" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9:G14" si="2">(100*$E$8)/$F$8</f>
         <v>52857.142857142855</v>
       </c>
-      <c r="H9" s="13">
-        <f t="shared" ref="H9:H21" si="3">(1/E9)*F9*G9</f>
+      <c r="H9" s="18">
+        <f t="shared" ref="H9:H14" si="3">(1/E9)*F9*G9</f>
         <v>39.361702127659576</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15">
+        <v>770</v>
+      </c>
+      <c r="E10" s="15">
+        <v>100</v>
+      </c>
+      <c r="F10" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>52857.142857142855</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="3"/>
+        <v>37.000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2800</v>
+      </c>
+      <c r="E11" s="15">
+        <v>40</v>
+      </c>
+      <c r="F11" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>52857.142857142855</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="3"/>
+        <v>92.500000000000014</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+      <c r="C12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="15">
+        <v>70</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>52857.142857142855</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="3"/>
+        <v>52.857142857142854</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1150</v>
+      </c>
+      <c r="E13" s="15">
+        <v>70</v>
+      </c>
+      <c r="F13" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>52857.142857142855</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="3"/>
+        <v>52.857142857142854</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D14" s="15">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="15">
+        <v>45</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>52857.142857142855</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="3"/>
+        <v>82.222222222222229</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="12"/>
+      <c r="C15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="15">
+        <v>70</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="C16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="15">
+        <v>770</v>
+      </c>
+      <c r="E16" s="15">
+        <v>100</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="12"/>
+      <c r="C17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="15">
+        <v>770</v>
+      </c>
+      <c r="E17" s="15">
+        <v>125</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="12"/>
+      <c r="C18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="15">
+        <v>110</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="12"/>
+      <c r="C19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="15">
+        <v>936</v>
+      </c>
+      <c r="E19" s="15">
+        <v>75</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="12"/>
+      <c r="C20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1820</v>
+      </c>
+      <c r="E20" s="15">
+        <v>45</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
+      <c r="C21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="15">
+        <v>950</v>
+      </c>
+      <c r="E21" s="15">
+        <v>80</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+      <c r="C22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1260</v>
+      </c>
+      <c r="E22" s="15">
+        <v>62</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="12"/>
+      <c r="C23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="15">
         <v>1700</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E23" s="15">
         <v>100</v>
       </c>
-      <c r="F10" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>52857.142857142855</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="3"/>
-        <v>37.000000000000007</v>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="17">
+        <v>62</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="24">
+        <v>303</v>
+      </c>
+      <c r="D25" s="16">
+        <v>3700</v>
+      </c>
+      <c r="E25" s="16">
+        <v>65</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="2">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H25" s="20">
+        <f>(1/E25)*F25*G25</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="12"/>
+      <c r="C26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2065</v>
+      </c>
+      <c r="E26" s="4">
+        <v>58</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H26" s="18">
+        <f>(1/E26)*F26*G26</f>
+        <v>112.06896551724138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="12"/>
+      <c r="C27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1580</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H27" s="18">
+        <f>(1/E27)*F27*G27</f>
+        <v>144.44444444444446</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="12"/>
+      <c r="C28" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="15">
+        <v>4600</v>
+      </c>
+      <c r="E28" s="4">
+        <v>40</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H28" s="18">
+        <f>(1/E28)*F28*G28</f>
+        <v>162.50000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="12"/>
+      <c r="C29" s="25">
+        <v>420</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1970</v>
+      </c>
+      <c r="E29" s="4">
+        <v>45</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H29" s="18">
+        <f>(1/E29)*F29*G29</f>
+        <v>144.44444444444446</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="26">
+        <v>316</v>
+      </c>
+      <c r="D30" s="17">
+        <v>2321</v>
+      </c>
+      <c r="E30" s="7">
+        <v>40</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="7">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H30" s="19">
+        <f>(1/E30)*F30*G30</f>
+        <v>162.50000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C852B8-E863-D541-A4F6-F8092FE470A4}">
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E3" s="4">
+        <v>60</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="4">
+        <f>(100*$E$3)/$F$3</f>
+        <v>120000</v>
+      </c>
+      <c r="H3" s="18">
+        <f>(1/E3)*F3*G3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="12"/>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>785</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G7" si="0">(100*$E$3)/$F$3</f>
+        <v>120000</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H7" si="1">(1/E4)*F4*G4</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>978</v>
+      </c>
+      <c r="E5" s="4">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="1"/>
+        <v>127.65957446808511</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="12"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>785</v>
+      </c>
+      <c r="E6" s="4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>800</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="1"/>
+        <v>146.34146341463418</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1150</v>
+      </c>
+      <c r="E8" s="28">
+        <v>70</v>
+      </c>
+      <c r="F8" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8" s="28">
+        <f>(100*$E$8)/$F$8</f>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H8" s="29">
+        <f>(1/E8)*F8*G8</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="31">
+        <v>770</v>
+      </c>
+      <c r="E9" s="31">
+        <v>94</v>
+      </c>
+      <c r="F9" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" ref="G9:G24" si="2">(100*$E$8)/$F$8</f>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" ref="H9:H24" si="3">(1/E9)*F9*G9</f>
+        <v>74.468085106382972</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="31">
+        <v>770</v>
+      </c>
+      <c r="E10" s="31">
+        <v>100</v>
+      </c>
+      <c r="F10" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2800</v>
+      </c>
+      <c r="E11" s="15">
+        <v>40</v>
+      </c>
+      <c r="F11" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="15">
+        <v>70</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="3"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1300</v>
+      </c>
+      <c r="E13" s="15">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="3"/>
+        <v>189.18918918918919</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="15">
+        <v>45</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="3"/>
+        <v>155.55555555555554</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="15">
+        <v>70</v>
+      </c>
+      <c r="F15" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="3"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D16" s="31">
         <v>770</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E16" s="31">
         <v>100</v>
       </c>
-      <c r="F11" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>52857.142857142855</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="3"/>
-        <v>37.000000000000007</v>
+      <c r="F16" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="31">
+        <v>770</v>
+      </c>
+      <c r="E17" s="31">
+        <v>125</v>
+      </c>
+      <c r="F17" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="31">
+        <v>110</v>
+      </c>
+      <c r="F18" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="3"/>
+        <v>63.636363636363633</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="31">
+        <v>936</v>
+      </c>
+      <c r="E19" s="31">
+        <v>75</v>
+      </c>
+      <c r="F19" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" si="3"/>
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1820</v>
+      </c>
+      <c r="E20" s="15">
+        <v>45</v>
+      </c>
+      <c r="F20" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="3"/>
+        <v>155.55555555555554</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="31">
+        <v>950</v>
+      </c>
+      <c r="E21" s="31">
+        <v>80</v>
+      </c>
+      <c r="F21" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H21" s="32">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1260</v>
+      </c>
+      <c r="E22" s="15">
+        <v>62</v>
+      </c>
+      <c r="F22" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="3"/>
+        <v>112.9032258064516</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="31">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="31">
+        <v>100</v>
+      </c>
+      <c r="F23" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H23" s="32">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="17">
+        <v>62</v>
+      </c>
+      <c r="F24" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="2"/>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="3"/>
+        <v>112.9032258064516</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="25">
+        <v>303</v>
+      </c>
+      <c r="D25" s="15">
+        <v>3700</v>
+      </c>
+      <c r="E25" s="15">
+        <v>65</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H25" s="18">
+        <f>(1/E25)*F25*G25</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="12"/>
+      <c r="C26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2065</v>
+      </c>
+      <c r="E26" s="4">
+        <v>58</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H26" s="18">
+        <f>(1/E26)*F26*G26</f>
+        <v>112.06896551724138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="12"/>
+      <c r="C27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1580</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H27" s="18">
+        <f>(1/E27)*F27*G27</f>
+        <v>144.44444444444446</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="12"/>
+      <c r="C28" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="15">
+        <v>4600</v>
+      </c>
+      <c r="E28" s="4">
+        <v>40</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H28" s="18">
+        <f>(1/E28)*F28*G28</f>
+        <v>162.50000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="12"/>
+      <c r="C29" s="25">
+        <v>420</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1970</v>
+      </c>
+      <c r="E29" s="4">
+        <v>45</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H29" s="18">
+        <f>(1/E29)*F29*G29</f>
+        <v>144.44444444444446</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="26">
+        <v>316</v>
+      </c>
+      <c r="D30" s="17">
+        <v>2321</v>
+      </c>
+      <c r="E30" s="7">
+        <v>40</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="7">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H30" s="19">
+        <f>(1/E30)*F30*G30</f>
+        <v>162.50000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28510F9D-85BD-4D45-B549-CE9EC2E4C5C8}">
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E3" s="4">
+        <v>60</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="4">
+        <f>(100*$E$3)/$F$3</f>
+        <v>120000</v>
+      </c>
+      <c r="H3" s="18">
+        <f>(1/E3)*F3*G3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="12"/>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>785</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G7" si="0">(100*$E$3)/$F$3</f>
+        <v>120000</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H7" si="1">(1/E4)*F4*G4</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>978</v>
+      </c>
+      <c r="E5" s="4">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="1"/>
+        <v>127.65957446808511</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="12"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>785</v>
+      </c>
+      <c r="E6" s="4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>800</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="1"/>
+        <v>146.34146341463418</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="28">
+        <v>770</v>
+      </c>
+      <c r="E8" s="28">
+        <v>100</v>
+      </c>
+      <c r="F8" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8" s="28">
+        <f>(100*$E$8)/$F$8</f>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H8" s="29">
+        <f>(1/E8)*F8*G8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
+      <c r="C9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15">
+        <v>770</v>
+      </c>
+      <c r="E9" s="15">
+        <v>94</v>
+      </c>
+      <c r="F9" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9:G24" si="2">(100*$E$8)/$F$8</f>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" ref="H9:H24" si="3">(1/E9)*F9*G9</f>
+        <v>106.38297872340425</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+      <c r="C10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="15">
+        <v>37</v>
+      </c>
+      <c r="F10" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="3"/>
+        <v>270.27027027027026</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2800</v>
+      </c>
+      <c r="E11" s="15">
+        <v>40</v>
+      </c>
+      <c r="F11" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="15">
+        <v>70</v>
+      </c>
+      <c r="F12" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="3"/>
+        <v>142.85714285714283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1150</v>
+      </c>
+      <c r="E13" s="15">
+        <v>70</v>
+      </c>
+      <c r="F13" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="3"/>
+        <v>142.85714285714283</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+      <c r="C14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="15">
+        <v>45</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="3"/>
+        <v>222.22222222222223</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="12"/>
+      <c r="C15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="15">
+        <v>70</v>
+      </c>
+      <c r="F15" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="3"/>
+        <v>142.85714285714283</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="C16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="31">
+        <v>770</v>
+      </c>
+      <c r="E16" s="31">
+        <v>100</v>
+      </c>
+      <c r="F16" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="12"/>
+      <c r="C17" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="31">
+        <v>770</v>
+      </c>
+      <c r="E17" s="31">
+        <v>125</v>
+      </c>
+      <c r="F17" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="12"/>
+      <c r="C18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="31">
+        <v>110</v>
+      </c>
+      <c r="F18" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="3"/>
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="12"/>
+      <c r="C19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="15">
+        <v>936</v>
+      </c>
+      <c r="E19" s="15">
+        <v>75</v>
+      </c>
+      <c r="F19" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="3"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="12"/>
+      <c r="C20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1820</v>
+      </c>
+      <c r="E20" s="15">
+        <v>45</v>
+      </c>
+      <c r="F20" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="3"/>
+        <v>222.22222222222223</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
+      <c r="C21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="15">
+        <v>950</v>
+      </c>
+      <c r="E21" s="15">
+        <v>80</v>
+      </c>
+      <c r="F21" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+      <c r="C22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1260</v>
+      </c>
+      <c r="E22" s="15">
+        <v>62</v>
+      </c>
+      <c r="F22" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="3"/>
+        <v>161.29032258064515</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="12"/>
+      <c r="C23" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="31">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="31">
+        <v>100</v>
+      </c>
+      <c r="F23" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H23" s="32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="17">
+        <v>62</v>
+      </c>
+      <c r="F24" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="2"/>
+        <v>142857.14285714284</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="3"/>
+        <v>161.29032258064515</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10">
-        <v>2800</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="C25" s="25">
+        <v>303</v>
+      </c>
+      <c r="D25" s="15">
+        <v>3700</v>
+      </c>
+      <c r="E25" s="15">
+        <v>65</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H25" s="18">
+        <f>(1/E25)*F25*G25</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="12"/>
+      <c r="C26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2065</v>
+      </c>
+      <c r="E26" s="4">
+        <v>58</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H26" s="18">
+        <f>(1/E26)*F26*G26</f>
+        <v>112.06896551724138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="12"/>
+      <c r="C27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1580</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H27" s="18">
+        <f>(1/E27)*F27*G27</f>
+        <v>144.44444444444446</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="12"/>
+      <c r="C28" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="15">
+        <v>4600</v>
+      </c>
+      <c r="E28" s="4">
         <v>40</v>
       </c>
-      <c r="F12" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>52857.142857142855</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" si="3"/>
-        <v>92.500000000000014</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1400</v>
-      </c>
-      <c r="E13" s="10">
-        <v>70</v>
-      </c>
-      <c r="F13" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="2"/>
-        <v>52857.142857142855</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="3"/>
-        <v>52.857142857142854</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1150</v>
-      </c>
-      <c r="E14" s="10">
-        <v>70</v>
-      </c>
-      <c r="F14" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="2"/>
-        <v>52857.142857142855</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="3"/>
-        <v>52.857142857142854</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1400</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="F28" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="4">
+        <f>(100*$E$25)/$F$25</f>
+        <v>65000</v>
+      </c>
+      <c r="H28" s="18">
+        <f>(1/E28)*F28*G28</f>
+        <v>162.50000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="12"/>
+      <c r="C29" s="25">
+        <v>420</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1970</v>
+      </c>
+      <c r="E29" s="4">
         <v>45</v>
       </c>
-      <c r="F15" s="12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="2"/>
-        <v>52857.142857142855</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="3"/>
-        <v>82.222222222222229</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="19">
-        <v>303</v>
-      </c>
-      <c r="D16" s="11">
-        <v>3700</v>
-      </c>
-      <c r="E16" s="11">
-        <v>65</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="F29" s="15">
         <v>0.1</v>
       </c>
-      <c r="G16" s="1">
-        <f>(100*$E$16)/$F$16</f>
+      <c r="G29" s="4">
+        <f>(100*$E$25)/$F$25</f>
         <v>65000</v>
       </c>
-      <c r="H16" s="15">
-        <f t="shared" si="3"/>
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2065</v>
-      </c>
-      <c r="E17" s="2">
-        <v>58</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="H29" s="18">
+        <f>(1/E29)*F29*G29</f>
+        <v>144.44444444444446</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="26">
+        <v>316</v>
+      </c>
+      <c r="D30" s="17">
+        <v>2321</v>
+      </c>
+      <c r="E30" s="7">
+        <v>40</v>
+      </c>
+      <c r="F30" s="17">
         <v>0.1</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" ref="G17:G21" si="4">(100*$E$16)/$F$16</f>
+      <c r="G30" s="7">
+        <f>(100*$E$25)/$F$25</f>
         <v>65000</v>
       </c>
-      <c r="H17" s="13">
-        <f t="shared" si="3"/>
-        <v>112.06896551724138</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1580</v>
-      </c>
-      <c r="E18" s="2">
-        <v>45</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="4"/>
-        <v>65000</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="3"/>
-        <v>144.44444444444446</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
-      <c r="C19" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="10">
-        <v>4600</v>
-      </c>
-      <c r="E19" s="2">
-        <v>40</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="4"/>
-        <v>65000</v>
-      </c>
-      <c r="H19" s="13">
-        <f t="shared" si="3"/>
-        <v>162.50000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
-      <c r="C20" s="20">
-        <v>420</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1970</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="4"/>
-        <v>65000</v>
-      </c>
-      <c r="H20" s="13">
-        <f t="shared" si="3"/>
-        <v>144.44444444444446</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="21">
-        <v>316</v>
-      </c>
-      <c r="D21" s="12">
-        <v>2321</v>
-      </c>
-      <c r="E21" s="3">
-        <v>40</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="3">
-        <f>(100*$E$16)/$F$16</f>
-        <v>65000</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="3"/>
+      <c r="H30" s="19">
+        <f>(1/E30)*F30*G30</f>
         <v>162.50000000000003</v>
       </c>
     </row>
